--- a/AMPL.PRES.7. FINAL/IV. PRESUPUESTO/PARTIDAS NUEVAS/PRESUPUESTO.xlsx
+++ b/AMPL.PRES.7. FINAL/IV. PRESUPUESTO/PARTIDAS NUEVAS/PRESUPUESTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS 2022\COLEGIO SANTA ROSA\COLEGIO SANTA ROSA\AMPL.PRES.N°07 S.R\IV. PRESUPUESTO\PARTIDAS NUEVAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\AMPLIACION-07-SR\AMPL.PRES.7. FINAL\IV. PRESUPUESTO\PARTIDAS NUEVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A226D12E-DF6B-4E9C-9562-8264DD6CD312}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FB7A23-4D31-4709-BFC5-E335D10DB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15156" windowHeight="9096" xr2:uid="{B3CBF412-5D2E-4ED6-ACC3-A902DF8D3B1E}"/>
+    <workbookView xWindow="28680" yWindow="-12615" windowWidth="16440" windowHeight="28320" xr2:uid="{B3CBF412-5D2E-4ED6-ACC3-A902DF8D3B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SP1'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2241,13 +2250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96D8AE-CD3D-437D-AA81-5906D174F503}">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:J286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="J263" sqref="J263"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" style="1" customWidth="1"/>
@@ -6663,7 +6674,7 @@
         <v>7262.02</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="s">
         <v>493</v>
       </c>
@@ -6674,7 +6685,7 @@
         <v>122761.26</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="20" t="s">
         <v>495</v>
       </c>
@@ -6694,7 +6705,7 @@
         <v>6601.1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="20" t="s">
         <v>497</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>869.76</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="s">
         <v>499</v>
       </c>
@@ -6734,7 +6745,7 @@
         <v>271.85000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="s">
         <v>501</v>
       </c>
@@ -6745,7 +6756,7 @@
         <v>115018.55</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="s">
         <v>503</v>
       </c>
@@ -6764,8 +6775,14 @@
       <c r="G262" s="1">
         <v>49821.75</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262" s="1">
+        <v>9760</v>
+      </c>
+      <c r="J262" s="1">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="20" t="s">
         <v>505</v>
       </c>
@@ -6785,7 +6802,7 @@
         <v>65196.800000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="20" t="s">
         <v>507</v>
       </c>
@@ -6796,7 +6813,7 @@
         <v>196143.9</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="20" t="s">
         <v>509</v>
       </c>
@@ -6807,7 +6824,7 @@
         <v>5111.37</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="20" t="s">
         <v>511</v>
       </c>
@@ -6827,7 +6844,7 @@
         <v>5111.37</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="20" t="s">
         <v>513</v>
       </c>
@@ -6838,7 +6855,7 @@
         <v>185653.53</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="20" t="s">
         <v>514</v>
       </c>
@@ -6858,7 +6875,7 @@
         <v>80898</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="20" t="s">
         <v>516</v>
       </c>
@@ -6878,7 +6895,7 @@
         <v>32001.48</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="20" t="s">
         <v>518</v>
       </c>
@@ -6898,7 +6915,7 @@
         <v>16608.099999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="20" t="s">
         <v>520</v>
       </c>
@@ -6918,7 +6935,7 @@
         <v>2304.0500000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="20" t="s">
         <v>522</v>
       </c>
